--- a/TryAPI.xlsx
+++ b/TryAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DF8A5F-BAB4-4915-9C70-430D20E75EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB5E3AD-3E72-4C10-B8F0-240CB2572550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,10 +154,10 @@
     <t>Configuration Saved success message should be displayed</t>
   </si>
   <si>
-    <t>Rejected</t>
-  </si>
-  <si>
     <t>Not needed</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,10 +628,10 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
         <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
